--- a/Jiean/性能-监测/服务器监测采集.xlsx
+++ b/Jiean/性能-监测/服务器监测采集.xlsx
@@ -1416,10 +1416,10 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
+      <selection pane="bottomRight" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1434,7 +1434,7 @@
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B1" s="1">
         <f ca="1">NOW()</f>
-        <v>41617.790215162036</v>
+        <v>41618.98525208333</v>
       </c>
       <c r="D1" s="4">
         <v>41604.293323379628</v>
@@ -1772,7 +1772,7 @@
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1">
         <f ca="1">NOW()</f>
-        <v>41617.790215162036</v>
+        <v>41618.98525208333</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2084,8 +2084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Jiean/性能-监测/服务器监测采集.xlsx
+++ b/Jiean/性能-监测/服务器监测采集.xlsx
@@ -4,16 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
+    <workbookView xWindow="240" yWindow="255" windowWidth="14805" windowHeight="7860" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="window" sheetId="2" r:id="rId1"/>
-    <sheet name="内存" sheetId="1" r:id="rId2"/>
-    <sheet name="动态视图" sheetId="3" r:id="rId3"/>
-    <sheet name="系统表" sheetId="4" r:id="rId4"/>
-    <sheet name="实用系统存储过程" sheetId="5" r:id="rId5"/>
-    <sheet name="系统函数" sheetId="6" r:id="rId6"/>
-    <sheet name="msdb数据库" sheetId="7" r:id="rId7"/>
+    <sheet name="服务器资源使用" sheetId="2" r:id="rId1"/>
+    <sheet name="动态视图" sheetId="3" r:id="rId2"/>
+    <sheet name="系统表" sheetId="4" r:id="rId3"/>
+    <sheet name="实用系统存储过程" sheetId="5" r:id="rId4"/>
+    <sheet name="系统函数" sheetId="6" r:id="rId5"/>
+    <sheet name="msdb数据库" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -140,6 +139,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -152,32 +152,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="172">
-  <si>
-    <t>时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采集类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="154">
   <si>
     <t>Total Server Memory</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Target Server Memory</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -190,10 +170,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Memory Grants Pending</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Optimizer Memory</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -222,21 +198,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ms</t>
-  </si>
-  <si>
-    <t>ms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>page</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Page Read /sec</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -441,67 +402,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>connection memory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>granted workspace memory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lock memory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>memory grants pending</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>optimizer memory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sql cache memory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>target server memory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>total server memory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buffer cache hit ratio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>checkpoint pages/sec</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>database pages</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lazy writes/sec</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>page file expectancy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>page reads /sec</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>page write/sec</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">target pages </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -882,12 +783,40 @@
     <t>B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>内存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Memory Grants Pending</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SqlOS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页的读写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内存分布状况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -897,15 +826,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -966,12 +886,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -984,6 +898,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -997,13 +912,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1071,46 +986,43 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1413,42 +1325,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H20" sqref="H20"/>
+      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" customWidth="1"/>
     <col min="2" max="2" width="28.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
     <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.75" customWidth="1"/>
+    <col min="6" max="6" width="18.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B1" s="1">
         <f ca="1">NOW()</f>
-        <v>41618.98525208333</v>
-      </c>
-      <c r="D1" s="4">
+        <v>41619.777049884258</v>
+      </c>
+      <c r="C1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" s="2">
         <v>41604.293323379628</v>
       </c>
       <c r="E1" s="1">
         <v>41617.720802662036</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F1" s="1">
+        <v>41619.732976273146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D2">
         <v>54952268</v>
@@ -1457,9 +1376,9 @@
         <v>59812824</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D3">
         <v>66392</v>
@@ -1468,9 +1387,9 @@
         <v>66700</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D4">
         <v>55018428</v>
@@ -1479,9 +1398,9 @@
         <v>59879500</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D5">
         <v>55533488</v>
@@ -1490,14 +1409,14 @@
         <v>60973768</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="5"/>
+        <v>43</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3"/>
       <c r="D7">
         <v>0</v>
       </c>
@@ -1505,12 +1424,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>170</v>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="D8">
         <v>65604</v>
@@ -1519,12 +1438,12 @@
         <v>72057</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>170</v>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="D9">
         <v>41</v>
@@ -1533,12 +1452,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>170</v>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="D10">
         <v>3634</v>
@@ -1547,12 +1466,12 @@
         <v>4004</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>170</v>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>145</v>
       </c>
       <c r="D11">
         <v>18399</v>
@@ -1561,15 +1480,15 @@
         <v>16025</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>171</v>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="D13">
         <v>75803660808</v>
@@ -1578,11 +1497,11 @@
         <v>84382576104</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B14" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="10"/>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B14" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="8"/>
       <c r="D14">
         <v>93006123008</v>
       </c>
@@ -1590,11 +1509,11 @@
         <v>97710034944</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B15" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="10"/>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B15" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="8"/>
       <c r="D15">
         <v>22031</v>
       </c>
@@ -1602,11 +1521,11 @@
         <v>20376</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B16" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="10"/>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B16" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="8"/>
       <c r="D16">
         <v>151</v>
       </c>
@@ -1615,10 +1534,10 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B17" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="10"/>
+      <c r="B17" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="8"/>
       <c r="D17">
         <v>0</v>
       </c>
@@ -1627,33 +1546,33 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B18" s="10" t="s">
-        <v>58</v>
+      <c r="B18" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D18">
         <v>330</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B19" s="10" t="s">
-        <v>60</v>
+      <c r="B19" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D19">
         <v>296</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B20" s="10" t="s">
-        <v>61</v>
+      <c r="B20" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D20">
         <v>546</v>
@@ -1661,10 +1580,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D22">
         <v>11</v>
@@ -1672,7 +1591,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D23">
         <v>1912</v>
@@ -1680,7 +1599,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -1688,7 +1607,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D25">
         <v>1380416</v>
@@ -1696,7 +1615,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D26">
         <v>1233792</v>
@@ -1704,7 +1623,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D27">
         <v>213</v>
@@ -1712,29 +1631,29 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D28">
         <v>130240</v>
       </c>
       <c r="E28" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D29">
         <v>56338</v>
       </c>
       <c r="E29" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D30">
         <v>56270</v>
@@ -1742,10 +1661,108 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D31">
         <v>56464</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="B33" s="25"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>149</v>
+      </c>
+      <c r="B34" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>150</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>151</v>
+      </c>
+      <c r="B40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>152</v>
+      </c>
+      <c r="B46" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B47" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B50" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B51" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B52" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B53" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1755,337 +1772,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D35"/>
-  <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="24.125" customWidth="1"/>
-    <col min="3" max="3" width="14.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="1">
-        <f ca="1">NOW()</f>
-        <v>41618.98525208333</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>41602.508822569442</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>54422944</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>68787768</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>556424000</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>66344000</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8">
-        <v>61584000</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9">
-        <v>477704000</v>
-      </c>
-      <c r="D9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12">
-        <v>4561686</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14">
-        <v>2195938</v>
-      </c>
-      <c r="D14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15">
-        <v>3392080</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16">
-        <v>2887951</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17">
-        <v>163714696</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="1">
-        <v>41606.236236226854</v>
-      </c>
-      <c r="B19" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19">
-        <v>2440</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B20" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B21" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21">
-        <v>58824</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B22" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23">
-        <v>59272</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B24" t="s">
-        <v>78</v>
-      </c>
-      <c r="C24">
-        <v>217432</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B25" t="s">
-        <v>79</v>
-      </c>
-      <c r="C25">
-        <v>71496312</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B26" t="s">
-        <v>80</v>
-      </c>
-      <c r="C26">
-        <v>54805120</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B28" t="s">
-        <v>81</v>
-      </c>
-      <c r="C28">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B29" t="s">
-        <v>82</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B30" t="s">
-        <v>83</v>
-      </c>
-      <c r="C30">
-        <v>5005986</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B31" t="s">
-        <v>84</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B32" t="s">
-        <v>85</v>
-      </c>
-      <c r="C32">
-        <v>2521990</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B33" t="s">
-        <v>86</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B34" t="s">
-        <v>87</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B35" t="s">
-        <v>88</v>
-      </c>
-      <c r="C35">
-        <v>163741696</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2096,254 +1787,254 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B3" s="15" t="s">
-        <v>168</v>
+      <c r="B3" s="13" t="s">
+        <v>143</v>
       </c>
       <c r="C3" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
+      <c r="B4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
     </row>
     <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
+      <c r="B5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
     </row>
     <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="15" t="s">
-        <v>121</v>
+      <c r="B6" s="13" t="s">
+        <v>96</v>
       </c>
       <c r="C6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
+        <v>97</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
     </row>
     <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="15" t="s">
-        <v>133</v>
+      <c r="B7" s="13" t="s">
+        <v>108</v>
       </c>
       <c r="C7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
+        <v>109</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B8" s="8"/>
+      <c r="B8" s="6"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="6"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B10" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+    </row>
+    <row r="11" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B12" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B13" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B14" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B15" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B16" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B17" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="8"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B10" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-    </row>
-    <row r="11" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B12" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B13" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B14" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B15" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B16" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B17" s="8" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B18" s="15" t="s">
-        <v>96</v>
+      <c r="B18" s="13" t="s">
+        <v>71</v>
       </c>
       <c r="C18" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B19" s="8"/>
-      <c r="C19" s="15"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="13"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B22" s="8" t="s">
-        <v>95</v>
+      <c r="B22" s="6" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B26" s="15" t="s">
-        <v>129</v>
+      <c r="B26" s="13" t="s">
+        <v>104</v>
       </c>
       <c r="C26" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B27" s="15"/>
+      <c r="B27" s="13"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>131</v>
-      </c>
-      <c r="B28" s="15"/>
+        <v>106</v>
+      </c>
+      <c r="B28" s="13"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B29" s="15" t="s">
-        <v>129</v>
+      <c r="B29" s="13" t="s">
+        <v>104</v>
       </c>
       <c r="C29" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B32" s="15" t="s">
-        <v>124</v>
+      <c r="B32" s="13" t="s">
+        <v>99</v>
       </c>
       <c r="C32" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B33" s="15" t="s">
-        <v>126</v>
+      <c r="B33" s="13" t="s">
+        <v>101</v>
       </c>
       <c r="C33" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2373,7 +2064,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I37"/>
   <sheetViews>
@@ -2392,480 +2083,480 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+    </row>
+    <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+      <c r="B3" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-    </row>
-    <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-    </row>
-    <row r="3" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-    </row>
-    <row r="4" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-    </row>
-    <row r="7" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" t="s">
-        <v>143</v>
-      </c>
     </row>
     <row r="8" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="24" t="s">
-        <v>167</v>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="22" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
       <c r="I9" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
       <c r="I10" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
       <c r="I13" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13" t="s">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+    </row>
+    <row r="18" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+    </row>
+    <row r="23" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-    </row>
-    <row r="16" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-    </row>
-    <row r="18" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-    </row>
-    <row r="23" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
     </row>
     <row r="24" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
     </row>
     <row r="25" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
       <c r="I25" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
     </row>
     <row r="27" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
     </row>
     <row r="28" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
     </row>
     <row r="29" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A30" s="17"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
       <c r="I31" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="17"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A35" s="17"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A36" s="17"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A37" s="17"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2879,7 +2570,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A10"/>
   <sheetViews>
@@ -2894,42 +2585,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2938,7 +2629,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A5"/>
   <sheetViews>
@@ -2953,22 +2644,22 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2978,7 +2669,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/Jiean/性能-监测/服务器监测采集.xlsx
+++ b/Jiean/性能-监测/服务器监测采集.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="服务器资源使用" sheetId="2" r:id="rId1"/>
-    <sheet name="动态视图" sheetId="3" r:id="rId2"/>
+    <sheet name="动态视图函数" sheetId="3" r:id="rId2"/>
     <sheet name="系统表" sheetId="4" r:id="rId3"/>
     <sheet name="实用系统存储过程" sheetId="5" r:id="rId4"/>
     <sheet name="系统函数" sheetId="6" r:id="rId5"/>
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="156">
   <si>
     <t>Total Server Memory</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -267,17 +267,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>query_stats</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>返回 SQL Server 2012 中缓存查询计划的聚合性能统计信息。缓存计划中的每个查询语句在该视图中对应一行，并且行的生存期与计划本身相关联。在从缓存删除计划时，也将从该视图中删除对应行</t>
   </si>
   <si>
-    <t>sql_text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>返回由指定的 sql_handle 标识的 SQL 批处理的文本。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -411,10 +403,6 @@
   </si>
   <si>
     <t>查看SQL Server缓冲池中当前所有数据页的信息,观察数据页的分布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cached_plans</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -810,6 +798,25 @@
   <si>
     <t>单位</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cached_plans</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>query_stats</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sql_text()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>query_plan()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以 XML 格式返回计划句柄指定的批查询的显示计划。 计划句柄指定的计划可以处于缓存或正在执行状态</t>
   </si>
 </sst>
 </file>
@@ -988,7 +995,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1019,10 +1026,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1347,10 +1360,10 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B1" s="1">
         <f ca="1">NOW()</f>
-        <v>41619.777049884258</v>
+        <v>41619.981780902781</v>
       </c>
       <c r="C1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D1" s="2">
         <v>41604.293323379628</v>
@@ -1364,10 +1377,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D2">
         <v>54952268</v>
@@ -1378,7 +1391,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D3">
         <v>66392</v>
@@ -1389,7 +1402,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D4">
         <v>55018428</v>
@@ -1400,7 +1413,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D5">
         <v>55533488</v>
@@ -1411,7 +1424,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>14</v>
@@ -1429,7 +1442,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D8">
         <v>65604</v>
@@ -1443,7 +1456,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D9">
         <v>41</v>
@@ -1457,7 +1470,7 @@
         <v>17</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D10">
         <v>3634</v>
@@ -1471,7 +1484,7 @@
         <v>18</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D11">
         <v>18399</v>
@@ -1488,7 +1501,7 @@
         <v>19</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D13">
         <v>75803660808</v>
@@ -1499,7 +1512,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B14" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14">
@@ -1511,7 +1524,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B15" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15">
@@ -1523,7 +1536,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B16" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16">
@@ -1535,7 +1548,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B17" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17">
@@ -1547,10 +1560,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B18" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D18">
         <v>330</v>
@@ -1558,10 +1571,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B19" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D19">
         <v>296</v>
@@ -1569,10 +1582,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B20" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D20">
         <v>546</v>
@@ -1580,10 +1593,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D22">
         <v>11</v>
@@ -1591,7 +1604,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D23">
         <v>1912</v>
@@ -1599,7 +1612,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -1607,7 +1620,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D25">
         <v>1380416</v>
@@ -1615,7 +1628,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D26">
         <v>1233792</v>
@@ -1623,7 +1636,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D27">
         <v>213</v>
@@ -1631,29 +1644,29 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D28">
         <v>130240</v>
       </c>
       <c r="E28" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D29">
         <v>56338</v>
       </c>
       <c r="E29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D30">
         <v>56270</v>
@@ -1661,24 +1674,24 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D31">
         <v>56464</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="25" t="s">
-        <v>147</v>
-      </c>
-      <c r="B33" s="25"/>
+      <c r="A33" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="B33" s="24"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B34" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
@@ -1688,7 +1701,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B37" t="s">
         <v>9</v>
@@ -1701,7 +1714,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B40" t="s">
         <v>13</v>
@@ -1729,7 +1742,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B46" t="s">
         <v>0</v>
@@ -1762,7 +1775,7 @@
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B53" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1773,10 +1786,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1797,52 +1810,52 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" s="13" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
+      <c r="C4" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
     </row>
     <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
+      <c r="C5" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
     </row>
     <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="13" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
@@ -1856,10 +1869,10 @@
     </row>
     <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="13" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
@@ -1881,160 +1894,177 @@
       <c r="B9" s="6"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B10" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="23" t="s">
+      <c r="B10" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
     </row>
     <row r="11" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="C11" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B12" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
+        <v>153</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B13" s="13" t="s">
-        <v>33</v>
+        <v>154</v>
       </c>
       <c r="C13" t="s">
-        <v>110</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B14" s="7" t="s">
-        <v>34</v>
+      <c r="B14" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B15" s="6" t="s">
-        <v>35</v>
+      <c r="B15" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B16" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B17" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B18" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" t="s">
-        <v>94</v>
+      <c r="B18" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B19" s="6"/>
-      <c r="C19" s="13"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
+      <c r="B19" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B20" s="6"/>
+      <c r="C20" s="13"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B23" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B22" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B23" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B27" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B28" s="13"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B26" s="13" t="s">
+      <c r="B29" s="13"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B30" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" t="s">
         <v>104</v>
       </c>
-      <c r="C26" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B27" s="13"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
-        <v>106</v>
-      </c>
-      <c r="B28" s="13"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B29" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="C29" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
-        <v>98</v>
-      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B32" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="C32" t="s">
-        <v>100</v>
+      <c r="A32" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B33" s="13" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C33" t="s">
-        <v>102</v>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B34" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2047,20 +2077,23 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B18" r:id="rId1"/>
+    <hyperlink ref="B19" r:id="rId1"/>
     <hyperlink ref="B6" r:id="rId2"/>
-    <hyperlink ref="B32" r:id="rId3"/>
-    <hyperlink ref="B33" r:id="rId4"/>
-    <hyperlink ref="B26" r:id="rId5"/>
-    <hyperlink ref="B29" r:id="rId6"/>
+    <hyperlink ref="B33" r:id="rId3"/>
+    <hyperlink ref="B34" r:id="rId4"/>
+    <hyperlink ref="B27" r:id="rId5"/>
+    <hyperlink ref="B30" r:id="rId6"/>
     <hyperlink ref="B7" r:id="rId7"/>
-    <hyperlink ref="B13" r:id="rId8"/>
-    <hyperlink ref="B12" r:id="rId9"/>
+    <hyperlink ref="B14" r:id="rId8"/>
+    <hyperlink ref="B12" r:id="rId9" display="sql_text"/>
     <hyperlink ref="B3" r:id="rId10"/>
+    <hyperlink ref="B10" r:id="rId11"/>
+    <hyperlink ref="B11" r:id="rId12"/>
+    <hyperlink ref="B13" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
-  <legacyDrawing r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
+  <legacyDrawing r:id="rId15"/>
 </worksheet>
 </file>
 
@@ -2084,10 +2117,10 @@
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
@@ -2099,7 +2132,7 @@
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -2111,7 +2144,7 @@
     <row r="3" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -2123,7 +2156,7 @@
     <row r="4" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -2138,7 +2171,7 @@
     <row r="5" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -2164,17 +2197,17 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2182,14 +2215,14 @@
       <c r="B8" s="10"/>
       <c r="C8" s="12"/>
       <c r="D8" s="14" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="22" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2197,14 +2230,14 @@
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2212,14 +2245,14 @@
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2227,7 +2260,7 @@
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
@@ -2240,7 +2273,7 @@
       <c r="C12" s="10"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
@@ -2252,13 +2285,13 @@
       <c r="C13" s="10"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
       <c r="I13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2268,7 +2301,7 @@
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
@@ -2280,7 +2313,7 @@
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
@@ -2292,12 +2325,12 @@
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
       <c r="I16" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2315,14 +2348,14 @@
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
       <c r="D18" s="19" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
       <c r="I18" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2330,14 +2363,14 @@
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
       <c r="I19" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2345,14 +2378,14 @@
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="D20" s="11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
       <c r="I20" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2360,14 +2393,14 @@
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
       <c r="I21" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2375,7 +2408,7 @@
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
@@ -2387,7 +2420,7 @@
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="11" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
@@ -2408,17 +2441,17 @@
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
       <c r="I25" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2426,7 +2459,7 @@
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
@@ -2438,7 +2471,7 @@
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
@@ -2450,7 +2483,7 @@
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
@@ -2462,7 +2495,7 @@
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
@@ -2483,17 +2516,17 @@
       <c r="A31" s="15"/>
       <c r="B31" s="15"/>
       <c r="C31" s="12" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
       <c r="H31" s="15"/>
       <c r="I31" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
@@ -2501,7 +2534,7 @@
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
       <c r="D32" s="15" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E32" s="15"/>
       <c r="F32" s="15"/>
@@ -2585,42 +2618,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2644,22 +2677,22 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/Jiean/性能-监测/服务器监测采集.xlsx
+++ b/Jiean/性能-监测/服务器监测采集.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="255" windowWidth="14805" windowHeight="7860" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="服务器资源使用" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="B4" authorId="0">
+    <comment ref="D8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -48,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B10" authorId="0">
+    <comment ref="D15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -71,7 +71,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B11" authorId="0">
+    <comment ref="D16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="168">
   <si>
     <t>Total Server Memory</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -206,10 +206,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Target Pages</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>为硬件保留</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -245,10 +241,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Memory_Clerks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Buff_descriptors</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -394,10 +386,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>granted workspace memory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>返回SQL Server实例中当前活动状态的全部内存Clerk的集合。跟踪这个DMV，可以看到内存是如何被SQL Server消耗。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -540,16 +528,10 @@
     <t>返回有关 SQL Server 实例的事务的信息。</t>
   </si>
   <si>
-    <t>dm_db_file</t>
-  </si>
-  <si>
     <t>space_usage</t>
   </si>
   <si>
     <t>返回数据库中每个文件的空间使用信息。</t>
-  </si>
-  <si>
-    <t>dm_db_session</t>
   </si>
   <si>
     <t>反映当时tempdb 空间的总体分配</t>
@@ -776,47 +758,126 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>页的读写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内存分布状况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cached_plans</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>query_stats</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sql_text()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>query_plan()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以 XML 格式返回计划句柄指定的批查询的显示计划。 计划句柄指定的计划可以处于缓存或正在执行状态</t>
+  </si>
+  <si>
+    <t>内存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clerks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>objects</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>返回当前由 SQL Server 分配的内存对象。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>分析内存使用情况并标识可能出现的内存泄漏</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内存中缓冲区信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cache</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>entries</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回有关缓存中所有条目的信息。 使用此视图可对缓存条目进行跟踪，直至它们的关联对象。 还可使用此视图获取有关缓存条目的统计信息。</t>
+  </si>
+  <si>
+    <t>file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>session</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内存运作中资源使用的几个硬性指标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Memory Grants Pending</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>进程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SqlOS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页的读写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内存分布状况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cached_plans</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>query_stats</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sql_text()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>query_plan()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以 XML 格式返回计划句柄指定的批查询的显示计划。 计划句柄指定的计划可以处于缓存或正在执行状态</t>
+    <t>Target Pages</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>granted workspace memory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -995,7 +1056,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1030,11 +1091,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1338,13 +1405,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomRight" activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1360,10 +1427,10 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B1" s="1">
         <f ca="1">NOW()</f>
-        <v>41619.981780902781</v>
+        <v>41620.773064930552</v>
       </c>
       <c r="C1" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D1" s="2">
         <v>41604.293323379628</v>
@@ -1372,15 +1439,15 @@
         <v>41617.720802662036</v>
       </c>
       <c r="F1" s="1">
-        <v>41619.732976273146</v>
+        <v>41620.648855671294</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D2">
         <v>54952268</v>
@@ -1391,7 +1458,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D3">
         <v>66392</v>
@@ -1402,7 +1469,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D4">
         <v>55018428</v>
@@ -1413,7 +1480,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D5">
         <v>55533488</v>
@@ -1424,10 +1491,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7">
@@ -1439,10 +1506,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B8" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D8">
         <v>65604</v>
@@ -1453,10 +1520,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B9" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D9">
         <v>41</v>
@@ -1467,10 +1534,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B10" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D10">
         <v>3634</v>
@@ -1481,10 +1548,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D11">
         <v>18399</v>
@@ -1495,13 +1562,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D13">
         <v>75803660808</v>
@@ -1512,7 +1579,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B14" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14">
@@ -1524,7 +1591,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B15" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15">
@@ -1536,7 +1603,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B16" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16">
@@ -1548,7 +1615,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B17" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17">
@@ -1560,10 +1627,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B18" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D18">
         <v>330</v>
@@ -1571,10 +1638,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B19" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D19">
         <v>296</v>
@@ -1582,10 +1649,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B20" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D20">
         <v>546</v>
@@ -1593,10 +1660,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D22">
         <v>11</v>
@@ -1604,7 +1671,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D23">
         <v>1912</v>
@@ -1612,7 +1679,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -1620,7 +1687,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D25">
         <v>1380416</v>
@@ -1628,7 +1695,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D26">
         <v>1233792</v>
@@ -1636,7 +1703,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D27">
         <v>213</v>
@@ -1644,29 +1711,29 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D28">
         <v>130240</v>
       </c>
       <c r="E28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D29">
         <v>56338</v>
       </c>
       <c r="E29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D30">
         <v>56270</v>
@@ -1674,191 +1741,277 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D31">
         <v>56464</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="24" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B33" s="24"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
-        <v>146</v>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A34" s="27" t="s">
+        <v>159</v>
       </c>
       <c r="B34" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+        <v>160</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A35" s="27"/>
       <c r="B35" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
-        <v>147</v>
-      </c>
+      <c r="F35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A36" s="27"/>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A37" s="27"/>
       <c r="B37" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B38" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" t="s">
-        <v>148</v>
-      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>140</v>
+      </c>
+      <c r="B39" t="s">
+        <v>161</v>
+      </c>
+      <c r="C39" t="s">
+        <v>163</v>
+      </c>
+      <c r="F39">
+        <v>163741696</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+      <c r="C40" t="s">
+        <v>163</v>
+      </c>
+      <c r="F40">
+        <v>5209353</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B41" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+      <c r="C41" t="s">
+        <v>162</v>
+      </c>
+      <c r="F41">
+        <v>3766312</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+      <c r="C42" t="s">
+        <v>164</v>
+      </c>
+      <c r="F42" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B44" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" t="s">
-        <v>149</v>
-      </c>
+      <c r="C43" t="s">
+        <v>164</v>
+      </c>
+      <c r="F43">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>141</v>
+      </c>
+      <c r="B45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" t="s">
+        <v>167</v>
+      </c>
+      <c r="F45">
+        <v>59621288</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B46" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>167</v>
+      </c>
+      <c r="F46">
+        <v>71462824</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B48" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C47" t="s">
+        <v>167</v>
+      </c>
+      <c r="F47">
+        <v>378752</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B49" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" t="s">
+        <v>167</v>
+      </c>
+      <c r="F49">
+        <v>208448</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B50" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="C50" t="s">
+        <v>167</v>
+      </c>
+      <c r="F50">
+        <v>105360</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B51" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+      <c r="C51" t="s">
+        <v>167</v>
+      </c>
+      <c r="F51">
+        <v>74840</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B52" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B53" t="s">
-        <v>61</v>
+        <v>166</v>
+      </c>
+      <c r="C52" t="s">
+        <v>167</v>
+      </c>
+      <c r="F52">
+        <v>14808</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A34:A37"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="3.5" customWidth="1"/>
+    <col min="3" max="3" width="3.75" customWidth="1"/>
+    <col min="4" max="4" width="21.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="D2" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D4" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B3" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="C3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-    </row>
-    <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-    </row>
-    <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
+      <c r="E4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+    </row>
+    <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D5" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+    </row>
+    <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D6" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" t="s">
+        <v>101</v>
+      </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
@@ -1866,42 +2019,66 @@
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
-    </row>
-    <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B8" s="6"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="6"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B10" s="13" t="s">
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+    </row>
+    <row r="7" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+    </row>
+    <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+    </row>
+    <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D9" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E9" t="s">
         <v>151</v>
       </c>
-      <c r="C10" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+    </row>
+    <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D10" s="13"/>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
@@ -1909,33 +2086,30 @@
       <c r="J10" s="25"/>
       <c r="K10" s="25"/>
       <c r="L10" s="25"/>
-    </row>
-    <row r="11" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B12" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+    </row>
+    <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C11" t="s">
+        <v>154</v>
+      </c>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+    </row>
+    <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D12" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="E12" t="s">
+        <v>156</v>
+      </c>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
@@ -1943,157 +2117,220 @@
       <c r="J12" s="25"/>
       <c r="K12" s="25"/>
       <c r="L12" s="25"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B13" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="C13" t="s">
-        <v>155</v>
-      </c>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B14" s="13" t="s">
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="D15" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+    </row>
+    <row r="16" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D16" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="D17" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="D18" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="E18" t="s">
+        <v>147</v>
+      </c>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="D19" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="D20" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="D21" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C14" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B15" s="7" t="s">
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="D22" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B16" s="6" t="s">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="D23" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B17" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B18" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B19" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B20" s="6"/>
-      <c r="C20" s="13"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="D24" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="D25" s="6"/>
+      <c r="E25" s="13"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="D28" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="D29" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B23" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B24" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B27" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="C27" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B28" s="13"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
-        <v>103</v>
-      </c>
-      <c r="B29" s="13"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B30" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="C30" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B31" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="D32" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="E32" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D33" s="13"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B34" t="s">
+        <v>158</v>
+      </c>
+      <c r="D34" s="13"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D35" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="E35" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D38" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E38" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D39" s="13" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B33" s="13" t="s">
+      <c r="E39" t="s">
         <v>96</v>
-      </c>
-      <c r="C33" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B34" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="C34" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="C4:L4"/>
-    <mergeCell ref="C5:L5"/>
-    <mergeCell ref="C10:L10"/>
-    <mergeCell ref="C11:L11"/>
-    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="E8:N8"/>
+    <mergeCell ref="E4:N4"/>
+    <mergeCell ref="E15:N15"/>
+    <mergeCell ref="E16:N16"/>
+    <mergeCell ref="E17:N17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B19" r:id="rId1"/>
-    <hyperlink ref="B6" r:id="rId2"/>
-    <hyperlink ref="B33" r:id="rId3"/>
-    <hyperlink ref="B34" r:id="rId4"/>
-    <hyperlink ref="B27" r:id="rId5"/>
-    <hyperlink ref="B30" r:id="rId6"/>
-    <hyperlink ref="B7" r:id="rId7"/>
-    <hyperlink ref="B14" r:id="rId8"/>
-    <hyperlink ref="B12" r:id="rId9" display="sql_text"/>
-    <hyperlink ref="B3" r:id="rId10"/>
-    <hyperlink ref="B10" r:id="rId11"/>
-    <hyperlink ref="B11" r:id="rId12"/>
-    <hyperlink ref="B13" r:id="rId13"/>
+    <hyperlink ref="D24" r:id="rId1"/>
+    <hyperlink ref="D5" r:id="rId2"/>
+    <hyperlink ref="D38" r:id="rId3"/>
+    <hyperlink ref="D39" r:id="rId4"/>
+    <hyperlink ref="D32" r:id="rId5"/>
+    <hyperlink ref="D35" r:id="rId6"/>
+    <hyperlink ref="D6" r:id="rId7"/>
+    <hyperlink ref="D19" r:id="rId8"/>
+    <hyperlink ref="D17" r:id="rId9" display="sql_text"/>
+    <hyperlink ref="D2" r:id="rId10"/>
+    <hyperlink ref="D15" r:id="rId11"/>
+    <hyperlink ref="D16" r:id="rId12"/>
+    <hyperlink ref="D18" r:id="rId13"/>
+    <hyperlink ref="D12" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
-  <legacyDrawing r:id="rId15"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
+  <legacyDrawing r:id="rId16"/>
 </worksheet>
 </file>
 
@@ -2117,10 +2354,10 @@
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
@@ -2132,7 +2369,7 @@
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -2144,7 +2381,7 @@
     <row r="3" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -2156,7 +2393,7 @@
     <row r="4" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -2165,13 +2402,13 @@
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -2180,7 +2417,7 @@
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2197,17 +2434,17 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="12" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2215,14 +2452,14 @@
       <c r="B8" s="10"/>
       <c r="C8" s="12"/>
       <c r="D8" s="14" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="22" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2230,14 +2467,14 @@
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2245,14 +2482,14 @@
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2260,7 +2497,7 @@
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
@@ -2273,7 +2510,7 @@
       <c r="C12" s="10"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
@@ -2285,13 +2522,13 @@
       <c r="C13" s="10"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
       <c r="I13" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2301,7 +2538,7 @@
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
@@ -2313,7 +2550,7 @@
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
@@ -2325,12 +2562,12 @@
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
       <c r="I16" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2348,14 +2585,14 @@
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
       <c r="D18" s="19" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
       <c r="I18" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2363,14 +2600,14 @@
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="11" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
       <c r="I19" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2378,14 +2615,14 @@
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="D20" s="11" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
       <c r="I20" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2393,14 +2630,14 @@
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="11" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
       <c r="I21" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2408,7 +2645,7 @@
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="11" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
@@ -2420,7 +2657,7 @@
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="11" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
@@ -2441,17 +2678,17 @@
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
       <c r="I25" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2459,7 +2696,7 @@
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
@@ -2471,7 +2708,7 @@
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
@@ -2483,7 +2720,7 @@
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
@@ -2495,7 +2732,7 @@
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
@@ -2516,17 +2753,17 @@
       <c r="A31" s="15"/>
       <c r="B31" s="15"/>
       <c r="C31" s="12" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
       <c r="H31" s="15"/>
       <c r="I31" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
@@ -2534,7 +2771,7 @@
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
       <c r="D32" s="15" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E32" s="15"/>
       <c r="F32" s="15"/>
@@ -2618,42 +2855,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2677,22 +2914,22 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/Jiean/性能-监测/服务器监测采集.xlsx
+++ b/Jiean/性能-监测/服务器监测采集.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="服务器资源使用" sheetId="2" r:id="rId1"/>
@@ -1407,7 +1407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1427,7 +1427,7 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B1" s="1">
         <f ca="1">NOW()</f>
-        <v>41620.773064930552</v>
+        <v>41620.922038657409</v>
       </c>
       <c r="C1" t="s">
         <v>142</v>
@@ -1943,7 +1943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>

--- a/Jiean/性能-监测/服务器监测采集.xlsx
+++ b/Jiean/性能-监测/服务器监测采集.xlsx
@@ -19,6 +19,30 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="A24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>sqlServer也是系统中的一个进程</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
@@ -90,7 +114,7 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
@@ -152,7 +176,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="170">
   <si>
     <t>Total Server Memory</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -226,9 +250,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Committed Bytes</t>
-  </si>
-  <si>
     <t>系统</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -401,10 +422,6 @@
   </si>
   <si>
     <t>dm_db</t>
-  </si>
-  <si>
-    <t>index_usage_stats</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sessions</t>
@@ -754,15 +771,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>内存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>页的读写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内存分布状况</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -877,6 +886,30 @@
   </si>
   <si>
     <t>KB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physical_stats</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>usage_stats</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部分布状况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源使用(数据库)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Committed Bytes</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1404,14 +1437,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E46" sqref="E46"/>
+      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1427,10 +1460,10 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B1" s="1">
         <f ca="1">NOW()</f>
-        <v>41620.922038657409</v>
+        <v>41624.104153009263</v>
       </c>
       <c r="C1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D1" s="2">
         <v>41604.293323379628</v>
@@ -1444,10 +1477,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
         <v>34</v>
-      </c>
-      <c r="B2" t="s">
-        <v>35</v>
       </c>
       <c r="D2">
         <v>54952268</v>
@@ -1458,7 +1491,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3">
         <v>66392</v>
@@ -1469,7 +1502,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4">
         <v>55018428</v>
@@ -1480,7 +1513,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5">
         <v>55533488</v>
@@ -1491,7 +1524,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>13</v>
@@ -1509,7 +1542,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D8">
         <v>65604</v>
@@ -1523,7 +1556,7 @@
         <v>15</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D9">
         <v>41</v>
@@ -1537,7 +1570,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D10">
         <v>3634</v>
@@ -1551,7 +1584,7 @@
         <v>17</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D11">
         <v>18399</v>
@@ -1562,13 +1595,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D13">
         <v>75803660808</v>
@@ -1579,7 +1612,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B14" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14">
@@ -1591,7 +1624,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B15" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15">
@@ -1602,181 +1635,185 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B16" s="8" t="s">
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>163</v>
+      </c>
+      <c r="F16">
+        <v>59621288</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F17">
+        <v>71462824</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B18" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18">
+        <v>151</v>
+      </c>
+      <c r="E18">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B19" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16">
-        <v>151</v>
-      </c>
-      <c r="E16">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B17" s="8" t="s">
+      <c r="C19" s="8"/>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B20" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B18" s="8" t="s">
+      <c r="C20" t="s">
         <v>44</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D20">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B21" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D18">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B19" s="8" t="s">
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B22" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B20" s="8" t="s">
+      <c r="C22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
         <v>47</v>
       </c>
-      <c r="C20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
+      <c r="B24" t="s">
         <v>48</v>
       </c>
-      <c r="B22" t="s">
+      <c r="D24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
         <v>49</v>
       </c>
-      <c r="D22">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B23" t="s">
+      <c r="D25">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
         <v>50</v>
       </c>
-      <c r="D23">
-        <v>1912</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B24" t="s">
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
         <v>51</v>
       </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B25" t="s">
+      <c r="D27">
+        <v>1380416</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
         <v>52</v>
       </c>
-      <c r="D25">
-        <v>1380416</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B26" t="s">
+      <c r="D28">
+        <v>1233792</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
         <v>53</v>
       </c>
-      <c r="D26">
-        <v>1233792</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B27" t="s">
+      <c r="D29">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B30" t="s">
         <v>54</v>
       </c>
-      <c r="D27">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B28" t="s">
+      <c r="D30">
+        <v>130240</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B31" t="s">
         <v>55</v>
       </c>
-      <c r="D28">
-        <v>130240</v>
-      </c>
-      <c r="E28" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B29" t="s">
+      <c r="D31">
+        <v>56338</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B32" t="s">
         <v>56</v>
       </c>
-      <c r="D29">
-        <v>56338</v>
-      </c>
-      <c r="E29" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B30" t="s">
+      <c r="D32">
+        <v>56270</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B33" t="s">
         <v>57</v>
       </c>
-      <c r="D30">
-        <v>56270</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B31" t="s">
-        <v>58</v>
-      </c>
-      <c r="D31">
+      <c r="D33">
         <v>56464</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A33" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="B33" s="24"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A34" s="27" t="s">
-        <v>159</v>
-      </c>
-      <c r="B34" t="s">
-        <v>160</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-    </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A35" s="27"/>
-      <c r="B35" t="s">
-        <v>6</v>
-      </c>
-      <c r="F35">
-        <v>100</v>
-      </c>
+      <c r="A35" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="B35" s="24"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A36" s="27"/>
+      <c r="A36" s="27" t="s">
+        <v>155</v>
+      </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>156</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -1785,166 +1822,163 @@
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="27"/>
       <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="F37">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A38" s="27"/>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A39" s="27"/>
+      <c r="B39" t="s">
         <v>7</v>
       </c>
-      <c r="F37">
+      <c r="F39">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
-        <v>140</v>
-      </c>
-      <c r="B39" t="s">
-        <v>161</v>
-      </c>
-      <c r="C39" t="s">
-        <v>163</v>
-      </c>
-      <c r="F39">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>137</v>
+      </c>
+      <c r="B41" t="s">
+        <v>157</v>
+      </c>
+      <c r="C41" t="s">
+        <v>159</v>
+      </c>
+      <c r="F41">
         <v>163741696</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B40" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" t="s">
-        <v>163</v>
-      </c>
-      <c r="F40">
-        <v>5209353</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B41" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" t="s">
-        <v>162</v>
-      </c>
-      <c r="F41">
-        <v>3766312</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>164</v>
-      </c>
-      <c r="F42" t="s">
-        <v>165</v>
+        <v>159</v>
+      </c>
+      <c r="F42">
+        <v>5209353</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" t="s">
+        <v>158</v>
+      </c>
+      <c r="F43">
+        <v>3766312</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" t="s">
+        <v>160</v>
+      </c>
+      <c r="F44" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B45" t="s">
         <v>12</v>
       </c>
-      <c r="C43" t="s">
-        <v>164</v>
-      </c>
-      <c r="F43">
+      <c r="C45" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A45" t="s">
-        <v>141</v>
-      </c>
-      <c r="B45" t="s">
-        <v>0</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="F45">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
         <v>167</v>
       </c>
-      <c r="F45">
-        <v>59621288</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B46" t="s">
-        <v>1</v>
-      </c>
-      <c r="C46" t="s">
-        <v>167</v>
-      </c>
-      <c r="F46">
-        <v>71462824</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
         <v>5</v>
       </c>
       <c r="C47" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F47">
         <v>378752</v>
       </c>
     </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B48" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" t="s">
+        <v>163</v>
+      </c>
+      <c r="F48">
+        <v>208448</v>
+      </c>
+    </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B49" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C49" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F49">
-        <v>208448</v>
+        <v>105360</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B50" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C50" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F50">
-        <v>105360</v>
+        <v>74840</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B51" t="s">
-        <v>4</v>
+        <v>162</v>
       </c>
       <c r="C51" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F51">
-        <v>74840</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B52" t="s">
-        <v>166</v>
-      </c>
-      <c r="C52" t="s">
-        <v>167</v>
-      </c>
-      <c r="F52">
         <v>14808</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A36:A39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N39"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1956,27 +1990,27 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D4" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F4" s="28"/>
       <c r="G4" s="28"/>
@@ -1990,10 +2024,10 @@
     </row>
     <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D5" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
@@ -2007,10 +2041,10 @@
     </row>
     <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D6" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
@@ -2024,7 +2058,7 @@
     </row>
     <row r="7" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D7" s="13"/>
       <c r="F7" s="25"/>
@@ -2039,13 +2073,13 @@
     </row>
     <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F8" s="28"/>
       <c r="G8" s="28"/>
@@ -2059,10 +2093,10 @@
     </row>
     <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D9" s="6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E9" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
@@ -2076,7 +2110,7 @@
     </row>
     <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D10" s="13"/>
       <c r="F10" s="25"/>
@@ -2091,7 +2125,7 @@
     </row>
     <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
@@ -2105,10 +2139,10 @@
     </row>
     <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D12" s="13" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E12" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
@@ -2125,16 +2159,16 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="D15" s="13" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F15" s="28"/>
       <c r="G15" s="28"/>
@@ -2148,10 +2182,10 @@
     </row>
     <row r="16" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D16" s="26" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F16" s="29"/>
       <c r="G16" s="29"/>
@@ -2165,10 +2199,10 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="D17" s="13" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F17" s="28"/>
       <c r="G17" s="28"/>
@@ -2182,10 +2216,10 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="D18" s="13" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E18" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F18" s="23"/>
       <c r="G18" s="23"/>
@@ -2199,38 +2233,38 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="D19" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="D20" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="D21" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="D22" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="D23" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="D24" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E24" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.15">
@@ -2239,68 +2273,82 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="D28" s="6" t="s">
+      <c r="D28" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="D29" t="s">
-        <v>66</v>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B30" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B31" t="s">
-        <v>157</v>
+      <c r="D31" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E31" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="13"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B33" t="s">
+        <v>154</v>
+      </c>
+      <c r="D33" s="13"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D34" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E34" t="s">
         <v>97</v>
       </c>
-      <c r="E32" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D33" s="13"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B34" t="s">
-        <v>158</v>
-      </c>
-      <c r="D34" s="13"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D35" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="E35" t="s">
-        <v>99</v>
-      </c>
+      <c r="D35" s="13"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B36" t="s">
+        <v>164</v>
+      </c>
+      <c r="D36" s="13"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
+      <c r="D37" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D38" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D40" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="E40" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D38" s="13" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D41" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E41" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D39" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="E39" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2315,10 +2363,10 @@
   <hyperlinks>
     <hyperlink ref="D24" r:id="rId1"/>
     <hyperlink ref="D5" r:id="rId2"/>
-    <hyperlink ref="D38" r:id="rId3"/>
-    <hyperlink ref="D39" r:id="rId4"/>
-    <hyperlink ref="D32" r:id="rId5"/>
-    <hyperlink ref="D35" r:id="rId6"/>
+    <hyperlink ref="D40" r:id="rId3"/>
+    <hyperlink ref="D41" r:id="rId4"/>
+    <hyperlink ref="D31" r:id="rId5"/>
+    <hyperlink ref="D34" r:id="rId6"/>
     <hyperlink ref="D6" r:id="rId7"/>
     <hyperlink ref="D19" r:id="rId8"/>
     <hyperlink ref="D17" r:id="rId9" display="sql_text"/>
@@ -2354,10 +2402,10 @@
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
@@ -2369,7 +2417,7 @@
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -2381,7 +2429,7 @@
     <row r="3" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -2393,7 +2441,7 @@
     <row r="4" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -2402,13 +2450,13 @@
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -2417,7 +2465,7 @@
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2434,17 +2482,17 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2452,14 +2500,14 @@
       <c r="B8" s="10"/>
       <c r="C8" s="12"/>
       <c r="D8" s="14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="22" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2467,14 +2515,14 @@
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2482,14 +2530,14 @@
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2497,7 +2545,7 @@
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
@@ -2510,7 +2558,7 @@
       <c r="C12" s="10"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
@@ -2522,13 +2570,13 @@
       <c r="C13" s="10"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
       <c r="I13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2538,7 +2586,7 @@
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
@@ -2550,7 +2598,7 @@
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
@@ -2562,12 +2610,12 @@
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
       <c r="I16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2585,14 +2633,14 @@
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
       <c r="D18" s="19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
       <c r="I18" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2600,14 +2648,14 @@
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
       <c r="I19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2615,14 +2663,14 @@
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="D20" s="11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
       <c r="I20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2630,14 +2678,14 @@
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
       <c r="I21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2645,7 +2693,7 @@
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
@@ -2657,7 +2705,7 @@
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
@@ -2678,17 +2726,17 @@
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
       <c r="I25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2696,7 +2744,7 @@
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
@@ -2708,7 +2756,7 @@
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
@@ -2720,7 +2768,7 @@
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
@@ -2732,7 +2780,7 @@
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
@@ -2753,17 +2801,17 @@
       <c r="A31" s="15"/>
       <c r="B31" s="15"/>
       <c r="C31" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
       <c r="H31" s="15"/>
       <c r="I31" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
@@ -2771,7 +2819,7 @@
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
       <c r="D32" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E32" s="15"/>
       <c r="F32" s="15"/>
@@ -2855,42 +2903,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2914,22 +2962,22 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/Jiean/性能-监测/服务器监测采集.xlsx
+++ b/Jiean/性能-监测/服务器监测采集.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="服务器资源使用" sheetId="2" r:id="rId1"/>
@@ -1440,8 +1440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D11" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
@@ -1460,7 +1460,7 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B1" s="1">
         <f ca="1">NOW()</f>
-        <v>41624.104153009263</v>
+        <v>41624.433047916667</v>
       </c>
       <c r="C1" t="s">
         <v>138</v>
@@ -1977,8 +1977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2158,7 +2158,7 @@
       <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="C14" t="s">
+      <c r="A14" t="s">
         <v>24</v>
       </c>
       <c r="D14" s="6"/>

--- a/Jiean/性能-监测/服务器监测采集.xlsx
+++ b/Jiean/性能-监测/服务器监测采集.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="服务器资源使用" sheetId="2" r:id="rId1"/>
@@ -176,7 +176,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="169">
   <si>
     <t>Total Server Memory</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -857,59 +857,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Target Pages</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>granted workspace memory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>physical_stats</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>usage_stats</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部分布状况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源使用(数据库)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Committed Bytes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Memory Grants Pending</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Target Pages</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>page</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>`0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>granted workspace memory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>physical_stats</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>usage_stats</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内部分布状况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源使用(数据库)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Committed Bytes</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1438,13 +1434,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D29" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomRight" activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1455,12 +1451,13 @@
     <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.75" customWidth="1"/>
     <col min="6" max="6" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B1" s="1">
         <f ca="1">NOW()</f>
-        <v>41624.433047916667</v>
+        <v>41625.022269675923</v>
       </c>
       <c r="C1" t="s">
         <v>138</v>
@@ -1474,8 +1471,11 @@
       <c r="F1" s="1">
         <v>41620.648855671294</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G1" s="1">
+        <v>41624.98743645833</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>59812824</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>35</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>66700</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>36</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>59879500</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>37</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>60973768</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B8" s="3" t="s">
         <v>14</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>72057</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B9" s="3" t="s">
         <v>15</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B10" s="3" t="s">
         <v>16</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>4004</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
         <v>17</v>
       </c>
@@ -1593,12 +1593,12 @@
         <v>16025</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>136</v>
@@ -1610,7 +1610,7 @@
         <v>84382576104</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B14" s="8" t="s">
         <v>39</v>
       </c>
@@ -1622,7 +1622,7 @@
         <v>97710034944</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B15" s="8" t="s">
         <v>40</v>
       </c>
@@ -1634,12 +1634,12 @@
         <v>20376</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F16">
         <v>59621288</v>
@@ -1650,7 +1650,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F17">
         <v>71462824</v>
@@ -1794,7 +1794,7 @@
         <v>56270</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
         <v>57</v>
       </c>
@@ -1802,24 +1802,27 @@
         <v>56464</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="24" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B35" s="24"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="27" t="s">
         <v>155</v>
       </c>
       <c r="B36" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="27"/>
       <c r="B37" t="s">
         <v>6</v>
@@ -1827,8 +1830,11 @@
       <c r="F37">
         <v>100</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G37">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="27"/>
       <c r="B38" t="s">
         <v>9</v>
@@ -1836,8 +1842,11 @@
       <c r="F38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="27"/>
       <c r="B39" t="s">
         <v>7</v>
@@ -1845,120 +1854,137 @@
       <c r="F39">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G39">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>137</v>
       </c>
       <c r="B41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" t="s">
         <v>157</v>
       </c>
-      <c r="C41" t="s">
-        <v>159</v>
-      </c>
       <c r="F41">
-        <v>163741696</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+        <v>3766312</v>
+      </c>
+      <c r="G41">
+        <v>4138214</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C42" t="s">
         <v>159</v>
       </c>
       <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" t="s">
+        <v>159</v>
+      </c>
+      <c r="F43">
+        <v>160</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B45" t="s">
+        <v>156</v>
+      </c>
+      <c r="C45" t="s">
+        <v>158</v>
+      </c>
+      <c r="F45">
+        <v>163741696</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" t="s">
+        <v>158</v>
+      </c>
+      <c r="F46">
         <v>5209353</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B43" t="s">
-        <v>10</v>
-      </c>
-      <c r="C43" t="s">
-        <v>158</v>
-      </c>
-      <c r="F43">
-        <v>3766312</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B44" t="s">
-        <v>11</v>
-      </c>
-      <c r="C44" t="s">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>165</v>
+      </c>
+      <c r="B51" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" t="s">
+        <v>161</v>
+      </c>
+      <c r="F51">
+        <v>378752</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B52" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" t="s">
+        <v>161</v>
+      </c>
+      <c r="F52">
+        <v>208448</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B53" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" t="s">
+        <v>161</v>
+      </c>
+      <c r="F53">
+        <v>105360</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B54" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" t="s">
+        <v>161</v>
+      </c>
+      <c r="F54">
+        <v>74840</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B55" t="s">
         <v>160</v>
       </c>
-      <c r="F44" t="s">
+      <c r="C55" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B45" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45" t="s">
-        <v>160</v>
-      </c>
-      <c r="F45">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A47" t="s">
-        <v>167</v>
-      </c>
-      <c r="B47" t="s">
-        <v>5</v>
-      </c>
-      <c r="C47" t="s">
-        <v>163</v>
-      </c>
-      <c r="F47">
-        <v>378752</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B48" t="s">
-        <v>2</v>
-      </c>
-      <c r="C48" t="s">
-        <v>163</v>
-      </c>
-      <c r="F48">
-        <v>208448</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B49" t="s">
-        <v>3</v>
-      </c>
-      <c r="C49" t="s">
-        <v>163</v>
-      </c>
-      <c r="F49">
-        <v>105360</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B50" t="s">
-        <v>4</v>
-      </c>
-      <c r="C50" t="s">
-        <v>163</v>
-      </c>
-      <c r="F50">
-        <v>74840</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B51" t="s">
-        <v>162</v>
-      </c>
-      <c r="C51" t="s">
-        <v>163</v>
-      </c>
-      <c r="F51">
+      <c r="F55">
         <v>14808</v>
       </c>
     </row>
@@ -1977,7 +2003,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -2316,18 +2342,18 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D36" s="13"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D37" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="D38" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">

--- a/Jiean/性能-监测/服务器监测采集.xlsx
+++ b/Jiean/性能-监测/服务器监测采集.xlsx
@@ -176,7 +176,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="182">
   <si>
     <t>Total Server Memory</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -906,6 +906,57 @@
   </si>
   <si>
     <t>Memory Grants Pending</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运作中会影响到IO的一些操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>freeSpace Scans/sec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Full Scans/sec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Index Searches/sec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>page Splits/sec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pages Allocated /sec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>workfiles Created/sec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>worktables Creaed/sec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Log Bytes Flushed/sec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log Flush Waits/sec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Log Flush Write Time </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ms</t>
+  </si>
+  <si>
+    <t>log Flushes/sec</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1085,7 +1136,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1131,6 +1182,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1434,13 +1488,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A47" sqref="A47"/>
+      <selection pane="bottomRight" activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1448,16 +1502,16 @@
     <col min="1" max="1" width="11.375" customWidth="1"/>
     <col min="2" max="2" width="28.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.75" customWidth="1"/>
-    <col min="6" max="6" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.375" customWidth="1"/>
+    <col min="4" max="4" width="13.125" customWidth="1"/>
+    <col min="5" max="5" width="12.75" customWidth="1"/>
+    <col min="6" max="6" width="11.375" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B1" s="1">
         <f ca="1">NOW()</f>
-        <v>41625.022269675923</v>
+        <v>41625.971857638891</v>
       </c>
       <c r="C1" t="s">
         <v>138</v>
@@ -1474,8 +1528,11 @@
       <c r="G1" s="1">
         <v>41624.98743645833</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H1" s="1">
+        <v>41625.967719907407</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -1489,7 +1546,7 @@
         <v>59812824</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>35</v>
       </c>
@@ -1500,7 +1557,7 @@
         <v>66700</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>36</v>
       </c>
@@ -1511,7 +1568,7 @@
         <v>59879500</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>37</v>
       </c>
@@ -1522,7 +1579,7 @@
         <v>60973768</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -1537,7 +1594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B8" s="3" t="s">
         <v>14</v>
       </c>
@@ -1551,7 +1608,7 @@
         <v>72057</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B9" s="3" t="s">
         <v>15</v>
       </c>
@@ -1565,7 +1622,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B10" s="3" t="s">
         <v>16</v>
       </c>
@@ -1579,7 +1636,7 @@
         <v>4004</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
         <v>17</v>
       </c>
@@ -1593,7 +1650,7 @@
         <v>16025</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>18</v>
       </c>
@@ -1610,7 +1667,7 @@
         <v>84382576104</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B14" s="8" t="s">
         <v>39</v>
       </c>
@@ -1622,7 +1679,7 @@
         <v>97710034944</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B15" s="8" t="s">
         <v>40</v>
       </c>
@@ -1634,7 +1691,7 @@
         <v>20376</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
         <v>0</v>
       </c>
@@ -1794,7 +1851,7 @@
         <v>56270</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
         <v>57</v>
       </c>
@@ -1802,13 +1859,13 @@
         <v>56464</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="24" t="s">
         <v>166</v>
       </c>
       <c r="B35" s="24"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="27" t="s">
         <v>155</v>
       </c>
@@ -1822,7 +1879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="27"/>
       <c r="B37" t="s">
         <v>6</v>
@@ -1834,7 +1891,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="27"/>
       <c r="B38" t="s">
         <v>9</v>
@@ -1846,7 +1903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" s="27"/>
       <c r="B39" t="s">
         <v>7</v>
@@ -1858,7 +1915,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>137</v>
       </c>
@@ -1875,7 +1932,7 @@
         <v>4138214</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
         <v>11</v>
       </c>
@@ -1889,7 +1946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
         <v>12</v>
       </c>
@@ -1903,7 +1960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
         <v>156</v>
       </c>
@@ -1914,7 +1971,7 @@
         <v>163741696</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B46" t="s">
         <v>8</v>
       </c>
@@ -1925,72 +1982,173 @@
         <v>5209353</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="G48">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A48" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="B48" t="s">
+        <v>170</v>
+      </c>
+      <c r="H48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A49" s="30"/>
+      <c r="B49" t="s">
+        <v>171</v>
+      </c>
+      <c r="H49">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A50" s="30"/>
+      <c r="B50" t="s">
+        <v>172</v>
+      </c>
+      <c r="H50">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A51" s="30"/>
+      <c r="B51" t="s">
+        <v>173</v>
+      </c>
+      <c r="G51">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A51" t="s">
+      <c r="H51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A52" s="30"/>
+      <c r="B52" t="s">
+        <v>174</v>
+      </c>
+      <c r="H52">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A53" s="30"/>
+      <c r="B53" t="s">
+        <v>175</v>
+      </c>
+      <c r="H53">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B54" t="s">
+        <v>176</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B56" t="s">
+        <v>177</v>
+      </c>
+      <c r="H56">
+        <v>68191</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B57" t="s">
+        <v>178</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B58" t="s">
+        <v>179</v>
+      </c>
+      <c r="C58" t="s">
+        <v>180</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B59" t="s">
+        <v>181</v>
+      </c>
+      <c r="H59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
         <v>165</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B62" t="s">
         <v>5</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C62" t="s">
         <v>161</v>
       </c>
-      <c r="F51">
+      <c r="F62">
         <v>378752</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B52" t="s">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B63" t="s">
         <v>2</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C63" t="s">
         <v>161</v>
       </c>
-      <c r="F52">
+      <c r="F63">
         <v>208448</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B53" t="s">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B64" t="s">
         <v>3</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C64" t="s">
         <v>161</v>
       </c>
-      <c r="F53">
+      <c r="F64">
         <v>105360</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B54" t="s">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B65" t="s">
         <v>4</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C65" t="s">
         <v>161</v>
       </c>
-      <c r="F54">
+      <c r="F65">
         <v>74840</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B55" t="s">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B66" t="s">
         <v>160</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C66" t="s">
         <v>161</v>
       </c>
-      <c r="F55">
+      <c r="F66">
         <v>14808</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A48:A53"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2410,10 +2568,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2507,63 +2665,58 @@
     <row r="7" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
-      <c r="C7" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" t="s">
-        <v>108</v>
-      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="14" t="s">
-        <v>131</v>
+      <c r="C8" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>70</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
-      <c r="I8" s="22" t="s">
-        <v>132</v>
+      <c r="I8" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
+      <c r="C9" s="12"/>
       <c r="D9" s="14" t="s">
-        <v>71</v>
+        <v>131</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
-      <c r="I9" t="s">
-        <v>87</v>
+      <c r="I9" s="22" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
-      <c r="D10" s="11" t="s">
-        <v>72</v>
+      <c r="D10" s="14" t="s">
+        <v>71</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2571,21 +2724,24 @@
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
+      <c r="I11" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11" t="s">
-        <v>74</v>
-      </c>
+      <c r="D12" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
@@ -2596,26 +2752,26 @@
       <c r="C13" s="10"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
-      <c r="I13" t="s">
-        <v>117</v>
-      </c>
     </row>
     <row r="14" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11" t="s">
-        <v>75</v>
-      </c>
+      <c r="E14" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
+      <c r="I14" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
@@ -2624,64 +2780,61 @@
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17" t="s">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+    </row>
+    <row r="17" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" t="s">
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-    </row>
     <row r="18" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="19" t="s">
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+    </row>
+    <row r="19" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" t="s">
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2689,14 +2842,14 @@
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="D20" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
       <c r="I20" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2704,14 +2857,14 @@
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
       <c r="D21" s="11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
       <c r="I21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2719,19 +2872,22 @@
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="11" t="s">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
+      <c r="I22" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="23" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="11" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
@@ -2742,7 +2898,9 @@
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
-      <c r="D24" s="11"/>
+      <c r="D24" s="11" t="s">
+        <v>126</v>
+      </c>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
@@ -2751,38 +2909,36 @@
     <row r="25" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
-      <c r="C25" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>78</v>
-      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
-      <c r="I25" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="26" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
+      <c r="C26" s="12" t="s">
+        <v>65</v>
+      </c>
       <c r="D26" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
+      <c r="I26" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="27" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
@@ -2794,7 +2950,7 @@
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
@@ -2806,57 +2962,59 @@
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
+    <row r="30" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="15"/>
       <c r="B31" s="15"/>
-      <c r="C31" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>123</v>
-      </c>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
       <c r="H31" s="15"/>
-      <c r="I31" t="s">
-        <v>124</v>
-      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="15"/>
       <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
+      <c r="C32" s="12" t="s">
+        <v>122</v>
+      </c>
       <c r="D32" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E32" s="15"/>
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
       <c r="H32" s="15"/>
+      <c r="I32" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="15"/>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
+      <c r="D33" s="15" t="s">
+        <v>125</v>
+      </c>
       <c r="E33" s="15"/>
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
@@ -2902,11 +3060,21 @@
       <c r="G37" s="15"/>
       <c r="H37" s="15"/>
     </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A38" s="15"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D9" r:id="rId1"/>
-    <hyperlink ref="D8" r:id="rId2"/>
+    <hyperlink ref="D10" r:id="rId1"/>
+    <hyperlink ref="D9" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
